--- a/Carga de datos/Antea/Videojuegos_2.xlsx
+++ b/Carga de datos/Antea/Videojuegos_2.xlsx
@@ -952,7 +952,7 @@
   <dimension ref="A1:F1501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1289" workbookViewId="0">
-      <selection activeCell="I1303" sqref="I1303"/>
+      <selection activeCell="H1293" sqref="H1293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
